--- a/T3 2/document/Данные для авторизации и вакансия.xlsx
+++ b/T3 2/document/Данные для авторизации и вакансия.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\boot\T3 2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\boot\ElectroNeek\T3 2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-105" windowWidth="18015" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">логин </t>
   </si>
@@ -50,13 +50,19 @@
     <t>Вакансия</t>
   </si>
   <si>
-    <t>Менеджер по продажам</t>
-  </si>
-  <si>
     <t>https://hh.ru/</t>
   </si>
   <si>
     <t>Ссылка</t>
+  </si>
+  <si>
+    <t>sadielgodales@gmail.com</t>
+  </si>
+  <si>
+    <t>Destiny2</t>
+  </si>
+  <si>
+    <t>C# программист</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,47 +439,54 @@
     <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>